--- a/templates/PL-J-Lamp_3.xlsx
+++ b/templates/PL-J-Lamp_3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="9690" windowHeight="5985"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>C O N T O H</t>
   </si>
@@ -31,9 +31,6 @@
     <t>No.</t>
   </si>
   <si>
-    <t>URAUAN BARANG</t>
-  </si>
-  <si>
     <t>No. PART/</t>
   </si>
   <si>
@@ -55,27 +52,6 @@
     <t>I</t>
   </si>
   <si>
-    <t xml:space="preserve"> MATERIAL HP HEATER</t>
-  </si>
-  <si>
-    <t>(Harus dirinci harga raw material)</t>
-  </si>
-  <si>
-    <t>1. Tube Bundle</t>
-  </si>
-  <si>
-    <t>2. Shell &amp; Waterbox</t>
-  </si>
-  <si>
-    <t>3. Tube Sheet</t>
-  </si>
-  <si>
-    <t>4. Buffle Support dsb.</t>
-  </si>
-  <si>
-    <t>5. Isolasi &amp; Lagging</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sub Jumlah I </t>
   </si>
   <si>
@@ -133,13 +109,19 @@
     <t>PT PLN (Persero),,,,,,,,,,,,,,,,,</t>
   </si>
   <si>
-    <t>RENCANA KERJA DAN SYARAT-SYARAT PEMILIHAN LANGSUNG</t>
+    <t>RENCANA KERJA DAN SYARAT-SYARAT PENUNJUKAN LANGSUNG</t>
+  </si>
+  <si>
+    <t>URAIAN PEKERJAAN</t>
+  </si>
+  <si>
+    <t>Pekerjaan.....</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="10">
     <font>
       <sz val="10"/>
@@ -542,11 +524,6 @@
       <rgbColor rgb="00424242"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -625,7 +602,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -660,7 +636,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -836,11 +811,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -886,7 +861,7 @@
     </row>
     <row r="4" spans="3:9" ht="15.75">
       <c r="C4" s="38" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D4" s="39"/>
       <c r="E4" s="39"/>
@@ -897,7 +872,7 @@
     </row>
     <row r="5" spans="3:9" ht="15.75">
       <c r="C5" s="40" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D5" s="39"/>
       <c r="E5" s="39"/>
@@ -908,7 +883,7 @@
     </row>
     <row r="6" spans="3:9" ht="14.25">
       <c r="C6" s="36" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D6" s="39"/>
       <c r="E6" s="39"/>
@@ -919,7 +894,7 @@
     </row>
     <row r="7" spans="3:9" ht="14.25">
       <c r="C7" s="36" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="37"/>
@@ -930,7 +905,7 @@
     </row>
     <row r="8" spans="3:9" ht="14.25">
       <c r="C8" s="36" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="37"/>
@@ -964,19 +939,19 @@
         <v>4</v>
       </c>
       <c r="D11" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="F11" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="G11" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="H11" s="23" t="s">
         <v>8</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>9</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -984,14 +959,14 @@
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
       <c r="E12" s="25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I12" s="2"/>
     </row>
@@ -1027,10 +1002,10 @@
     </row>
     <row r="15" spans="3:9" ht="15">
       <c r="C15" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="3"/>
@@ -1040,9 +1015,7 @@
     </row>
     <row r="16" spans="3:9" ht="15">
       <c r="C16" s="7"/>
-      <c r="D16" s="28" t="s">
-        <v>14</v>
-      </c>
+      <c r="D16" s="28"/>
       <c r="E16" s="28"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1051,9 +1024,7 @@
     </row>
     <row r="17" spans="3:9" ht="15">
       <c r="C17" s="7"/>
-      <c r="D17" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1062,9 +1033,7 @@
     </row>
     <row r="18" spans="3:9" ht="15">
       <c r="C18" s="7"/>
-      <c r="D18" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1073,9 +1042,7 @@
     </row>
     <row r="19" spans="3:9" ht="15">
       <c r="C19" s="7"/>
-      <c r="D19" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1084,9 +1051,7 @@
     </row>
     <row r="20" spans="3:9" ht="15">
       <c r="C20" s="7"/>
-      <c r="D20" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1095,9 +1060,7 @@
     </row>
     <row r="21" spans="3:9" ht="15.75" thickBot="1">
       <c r="C21" s="7"/>
-      <c r="D21" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1107,7 +1070,7 @@
     <row r="22" spans="3:9" ht="15.75" thickBot="1">
       <c r="C22" s="7"/>
       <c r="D22" s="30" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -1117,10 +1080,10 @@
     </row>
     <row r="23" spans="3:9" ht="15">
       <c r="C23" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="3"/>
@@ -1131,7 +1094,7 @@
     <row r="24" spans="3:9" ht="15">
       <c r="C24" s="7"/>
       <c r="D24" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -1142,7 +1105,7 @@
     <row r="25" spans="3:9" ht="15">
       <c r="C25" s="7"/>
       <c r="D25" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -1153,7 +1116,7 @@
     <row r="26" spans="3:9" ht="15">
       <c r="C26" s="7"/>
       <c r="D26" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -1164,7 +1127,7 @@
     <row r="27" spans="3:9" ht="15">
       <c r="C27" s="7"/>
       <c r="D27" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -1175,7 +1138,7 @@
     <row r="28" spans="3:9" ht="15">
       <c r="C28" s="7"/>
       <c r="D28" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -1186,7 +1149,7 @@
     <row r="29" spans="3:9" ht="15">
       <c r="C29" s="7"/>
       <c r="D29" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1197,7 +1160,7 @@
     <row r="30" spans="3:9" ht="15.75" thickBot="1">
       <c r="C30" s="7"/>
       <c r="D30" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1208,7 +1171,7 @@
     <row r="31" spans="3:9" ht="15.75" thickBot="1">
       <c r="C31" s="7"/>
       <c r="D31" s="30" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1218,10 +1181,10 @@
     </row>
     <row r="32" spans="3:9" ht="15">
       <c r="C32" s="7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="3"/>
@@ -1232,7 +1195,7 @@
     <row r="33" spans="3:9" ht="15">
       <c r="C33" s="7"/>
       <c r="D33" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1243,7 +1206,7 @@
     <row r="34" spans="3:9" ht="15">
       <c r="C34" s="7"/>
       <c r="D34" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1254,7 +1217,7 @@
     <row r="35" spans="3:9" ht="15">
       <c r="C35" s="7"/>
       <c r="D35" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1265,7 +1228,7 @@
     <row r="36" spans="3:9" ht="15">
       <c r="C36" s="7"/>
       <c r="D36" s="30" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1275,10 +1238,10 @@
     </row>
     <row r="37" spans="3:9" ht="15">
       <c r="C37" s="7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="3"/>
@@ -1289,7 +1252,7 @@
     <row r="38" spans="3:9" ht="15">
       <c r="C38" s="7"/>
       <c r="D38" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1300,7 +1263,7 @@
     <row r="39" spans="3:9" ht="15.75" thickBot="1">
       <c r="C39" s="7"/>
       <c r="D39" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1311,7 +1274,7 @@
     <row r="40" spans="3:9" ht="15.75" thickBot="1">
       <c r="C40" s="8"/>
       <c r="D40" s="31" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="4"/>
@@ -1321,7 +1284,7 @@
     </row>
     <row r="41" spans="3:9" ht="15">
       <c r="C41" s="12" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
@@ -1332,7 +1295,7 @@
     </row>
     <row r="42" spans="3:9" ht="15.75" thickBot="1">
       <c r="C42" s="14" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
@@ -1343,7 +1306,7 @@
     </row>
     <row r="43" spans="3:9" ht="15.75" thickBot="1">
       <c r="C43" s="12" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
@@ -1354,7 +1317,7 @@
     </row>
     <row r="44" spans="3:9" ht="15.75" thickBot="1">
       <c r="C44" s="16" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D44" s="17"/>
       <c r="E44" s="17"/>

--- a/templates/PL-J-Lamp_3.xlsx
+++ b/templates/PL-J-Lamp_3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="9690" windowHeight="5985"/>
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
-  <si>
-    <t>C O N T O H</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t xml:space="preserve">        Lampiran : 3.</t>
   </si>
@@ -106,9 +103,6 @@
     <t>.............................</t>
   </si>
   <si>
-    <t>PT PLN (Persero),,,,,,,,,,,,,,,,,</t>
-  </si>
-  <si>
     <t>RENCANA KERJA DAN SYARAT-SYARAT PENUNJUKAN LANGSUNG</t>
   </si>
   <si>
@@ -116,12 +110,15 @@
   </si>
   <si>
     <t>Pekerjaan.....</t>
+  </si>
+  <si>
+    <t>PT PLN (Persero) Kantor Pusat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10">
     <font>
       <sz val="10"/>
@@ -189,15 +186,12 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -394,46 +388,23 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -448,6 +419,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -524,6 +518,11 @@
       <rgbColor rgb="00424242"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -602,6 +601,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -636,6 +636,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -811,12 +812,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -828,184 +827,182 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="18.75">
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="35" t="s">
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="3:9" ht="14.25">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="3:9" ht="15.75">
+      <c r="C3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="3:9" ht="14.25">
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="3:9" ht="15.75">
-      <c r="C3" s="38" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="3:9" ht="15.75">
+      <c r="C4" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="3:9" ht="15.75">
+      <c r="C5" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="3:9" ht="14.25">
+      <c r="C6" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="3:9" ht="14.25">
+      <c r="C7" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="3:9" ht="14.25">
+      <c r="C8" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="3:9" ht="15" thickBot="1">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="3:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="3:9" ht="15.75">
-      <c r="C4" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="3:9" ht="15.75">
-      <c r="C5" s="40" t="s">
+      <c r="H10" s="35"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="3:9" ht="15">
+      <c r="C11" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="3:9" ht="14.25">
-      <c r="C6" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="3:9" ht="14.25">
-      <c r="C7" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="3:9" ht="14.25">
-      <c r="C8" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="3:9" ht="15" thickBot="1">
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="3:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20" t="s">
+      <c r="E11" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="3:9" ht="15.75" thickBot="1">
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="38"/>
+      <c r="G12" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="3:9" ht="15.75" thickBot="1">
+      <c r="C13" s="39">
+        <v>1</v>
+      </c>
+      <c r="D13" s="39">
+        <v>2</v>
+      </c>
+      <c r="E13" s="39">
         <v>3</v>
       </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="3:9" ht="15">
-      <c r="C11" s="22" t="s">
+      <c r="F13" s="39">
         <v>4</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="22" t="s">
+      <c r="G13" s="39">
         <v>5</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="H13" s="40">
         <v>6</v>
       </c>
-      <c r="G11" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="3:9" ht="15.75" thickBot="1">
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="3:9" ht="15.75" thickBot="1">
-      <c r="C13" s="25">
-        <v>1</v>
-      </c>
-      <c r="D13" s="25">
-        <v>2</v>
-      </c>
-      <c r="E13" s="25">
-        <v>3</v>
-      </c>
-      <c r="F13" s="25">
-        <v>4</v>
-      </c>
-      <c r="G13" s="25">
-        <v>5</v>
-      </c>
-      <c r="H13" s="26">
-        <v>6</v>
-      </c>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="3:9" ht="15">
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="34"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="25"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="3:9" ht="15">
       <c r="C15" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="3"/>
@@ -1015,8 +1012,8 @@
     </row>
     <row r="16" spans="3:9" ht="15">
       <c r="C16" s="7"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="5"/>
@@ -1069,8 +1066,8 @@
     </row>
     <row r="22" spans="3:9" ht="15.75" thickBot="1">
       <c r="C22" s="7"/>
-      <c r="D22" s="30" t="s">
-        <v>12</v>
+      <c r="D22" s="21" t="s">
+        <v>11</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -1080,10 +1077,10 @@
     </row>
     <row r="23" spans="3:9" ht="15">
       <c r="C23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>13</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>14</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="3"/>
@@ -1094,7 +1091,7 @@
     <row r="24" spans="3:9" ht="15">
       <c r="C24" s="7"/>
       <c r="D24" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -1105,7 +1102,7 @@
     <row r="25" spans="3:9" ht="15">
       <c r="C25" s="7"/>
       <c r="D25" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -1116,7 +1113,7 @@
     <row r="26" spans="3:9" ht="15">
       <c r="C26" s="7"/>
       <c r="D26" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -1127,7 +1124,7 @@
     <row r="27" spans="3:9" ht="15">
       <c r="C27" s="7"/>
       <c r="D27" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -1138,7 +1135,7 @@
     <row r="28" spans="3:9" ht="15">
       <c r="C28" s="7"/>
       <c r="D28" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -1149,7 +1146,7 @@
     <row r="29" spans="3:9" ht="15">
       <c r="C29" s="7"/>
       <c r="D29" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1160,7 +1157,7 @@
     <row r="30" spans="3:9" ht="15.75" thickBot="1">
       <c r="C30" s="7"/>
       <c r="D30" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1170,8 +1167,8 @@
     </row>
     <row r="31" spans="3:9" ht="15.75" thickBot="1">
       <c r="C31" s="7"/>
-      <c r="D31" s="30" t="s">
-        <v>16</v>
+      <c r="D31" s="21" t="s">
+        <v>15</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1181,10 +1178,10 @@
     </row>
     <row r="32" spans="3:9" ht="15">
       <c r="C32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>18</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="3"/>
@@ -1195,7 +1192,7 @@
     <row r="33" spans="3:9" ht="15">
       <c r="C33" s="7"/>
       <c r="D33" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1206,7 +1203,7 @@
     <row r="34" spans="3:9" ht="15">
       <c r="C34" s="7"/>
       <c r="D34" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1217,7 +1214,7 @@
     <row r="35" spans="3:9" ht="15">
       <c r="C35" s="7"/>
       <c r="D35" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1227,8 +1224,8 @@
     </row>
     <row r="36" spans="3:9" ht="15">
       <c r="C36" s="7"/>
-      <c r="D36" s="30" t="s">
-        <v>19</v>
+      <c r="D36" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1238,10 +1235,10 @@
     </row>
     <row r="37" spans="3:9" ht="15">
       <c r="C37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>21</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="3"/>
@@ -1252,7 +1249,7 @@
     <row r="38" spans="3:9" ht="15">
       <c r="C38" s="7"/>
       <c r="D38" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1263,7 +1260,7 @@
     <row r="39" spans="3:9" ht="15.75" thickBot="1">
       <c r="C39" s="7"/>
       <c r="D39" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1273,8 +1270,8 @@
     </row>
     <row r="40" spans="3:9" ht="15.75" thickBot="1">
       <c r="C40" s="8"/>
-      <c r="D40" s="31" t="s">
-        <v>22</v>
+      <c r="D40" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="4"/>
@@ -1284,7 +1281,7 @@
     </row>
     <row r="41" spans="3:9" ht="15">
       <c r="C41" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
@@ -1295,7 +1292,7 @@
     </row>
     <row r="42" spans="3:9" ht="15.75" thickBot="1">
       <c r="C42" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
@@ -1306,7 +1303,7 @@
     </row>
     <row r="43" spans="3:9" ht="15.75" thickBot="1">
       <c r="C43" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
@@ -1317,7 +1314,7 @@
     </row>
     <row r="44" spans="3:9" ht="15.75" thickBot="1">
       <c r="C44" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D44" s="17"/>
       <c r="E44" s="17"/>

--- a/templates/PL-J-Lamp_3.xlsx
+++ b/templates/PL-J-Lamp_3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="9690" windowHeight="5985"/>
@@ -94,15 +94,6 @@
     <t>PEMBULATAN</t>
   </si>
   <si>
-    <t>Tanggal : ......…............................</t>
-  </si>
-  <si>
-    <t>Nomor   : ....................................</t>
-  </si>
-  <si>
-    <t>.............................</t>
-  </si>
-  <si>
     <t>RENCANA KERJA DAN SYARAT-SYARAT PENUNJUKAN LANGSUNG</t>
   </si>
   <si>
@@ -113,6 +104,15 @@
   </si>
   <si>
     <t>PT PLN (Persero) Kantor Pusat</t>
+  </si>
+  <si>
+    <t>#namapengadaan#</t>
+  </si>
+  <si>
+    <t>Nomor   : #nomor#</t>
+  </si>
+  <si>
+    <t>Tanggal : #tanggal#</t>
   </si>
 </sst>
 </file>
@@ -408,6 +408,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -419,29 +442,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -815,7 +815,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:H8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -846,69 +848,69 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="3:9" ht="15.75">
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="3:9" ht="15.75">
-      <c r="C4" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
+      <c r="C4" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="3:9" ht="15.75">
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="3:9" ht="14.25">
+      <c r="C6" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="3:9" ht="14.25">
+      <c r="C7" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="3:9" ht="14.25">
+      <c r="C8" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="3:9" ht="14.25">
-      <c r="C6" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="3:9" ht="14.25">
-      <c r="C7" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="3:9" ht="14.25">
-      <c r="C8" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="3:9" ht="15" thickBot="1">
@@ -921,69 +923,69 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="3:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="34" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="35"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="3:9" ht="15">
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="36" t="s">
+      <c r="D11" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="37" t="s">
+      <c r="H11" s="32" t="s">
         <v>7</v>
       </c>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="3:9" ht="15.75" thickBot="1">
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="39" t="s">
+      <c r="F12" s="33"/>
+      <c r="G12" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="40" t="s">
+      <c r="H12" s="35" t="s">
         <v>9</v>
       </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="3:9" ht="15.75" thickBot="1">
-      <c r="C13" s="39">
+      <c r="C13" s="34">
         <v>1</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="34">
         <v>2</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="34">
         <v>3</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="34">
         <v>4</v>
       </c>
-      <c r="G13" s="39">
+      <c r="G13" s="34">
         <v>5</v>
       </c>
-      <c r="H13" s="40">
+      <c r="H13" s="35">
         <v>6</v>
       </c>
       <c r="I13" s="2"/>
@@ -1002,7 +1004,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="3"/>
